--- a/main/tests/bike.xlsx
+++ b/main/tests/bike.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\3d\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\University\MSc Thesis\topology-optimization\main\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2E91B5E-9AF0-46E1-BF00-E691E6E3730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E09A2F73-8274-4A80-91BD-70E095FE4910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{2D86FB45-E629-4292-A468-1496ADE41B90}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="57">
   <si>
     <t>ForceX</t>
   </si>
@@ -45,24 +45,9 @@
     <t>ForceY</t>
   </si>
   <si>
-    <t>NumElX</t>
-  </si>
-  <si>
-    <t>NumElY</t>
-  </si>
-  <si>
-    <t>VolumeFraction</t>
-  </si>
-  <si>
-    <t>Rmin</t>
-  </si>
-  <si>
     <t>Penalty</t>
   </si>
   <si>
-    <t>FilterType</t>
-  </si>
-  <si>
     <t>Eta</t>
   </si>
   <si>
@@ -72,9 +57,6 @@
     <t>Move</t>
   </si>
   <si>
-    <t>MaxIteration</t>
-  </si>
-  <si>
     <t>Option</t>
   </si>
   <si>
@@ -87,9 +69,6 @@
     <t>DisY</t>
   </si>
   <si>
-    <t>NumElZ</t>
-  </si>
-  <si>
     <t>DisZ</t>
   </si>
   <si>
@@ -117,9 +96,6 @@
     <t>Void</t>
   </si>
   <si>
-    <t>FilterBC</t>
-  </si>
-  <si>
     <t>1: Only density | 2 and 3: Projection with eta and beta</t>
   </si>
   <si>
@@ -141,9 +117,6 @@
     <t>Maximum number of design cycles</t>
   </si>
   <si>
-    <t>Minimum move in optimality criterion process</t>
-  </si>
-  <si>
     <t>Filter radius</t>
   </si>
   <si>
@@ -202,6 +175,39 @@
   </si>
   <si>
     <t>0.35, 0.5, 1</t>
+  </si>
+  <si>
+    <t>NX</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>NZ</t>
+  </si>
+  <si>
+    <t>Volume Fraction</t>
+  </si>
+  <si>
+    <t>Penalty Increase</t>
+  </si>
+  <si>
+    <t>Increase in penalty factor per iteration</t>
+  </si>
+  <si>
+    <t>Max Iteration</t>
+  </si>
+  <si>
+    <t>Maximum move in optimality criterion process</t>
+  </si>
+  <si>
+    <t>Filter Type</t>
+  </si>
+  <si>
+    <t>Filter BC</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
@@ -589,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629BA73F-B8A9-4E08-B2A9-24B4F3A921F5}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -604,168 +610,179 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="B2" s="8">
         <v>40</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B3" s="8">
         <v>10</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5">
         <v>25</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5">
         <v>0.1</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" s="5">
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="B7" s="5">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5">
-        <v>5.0000000000000001E-3</v>
+        <v>50</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5">
-        <v>1E-3</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="B10" s="5">
-        <v>0.1</v>
+        <v>1E-3</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>0.2</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="B12" s="5">
-        <v>1</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>38</v>
+        <v>3</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>56</v>
+      </c>
+      <c r="B14" s="5">
         <f>SQRT(3)</f>
         <v>1.7320508075688772</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.2</v>
-      </c>
       <c r="C14" s="5" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B15" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="5">
         <v>2</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>36</v>
+      <c r="C16" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -789,19 +806,19 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
@@ -810,7 +827,7 @@
         <v>1</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
@@ -818,10 +835,10 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C2" s="2">
         <v>0</v>
@@ -841,10 +858,10 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2">
         <v>0</v>
@@ -864,10 +881,10 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C4" s="2">
         <v>0</v>
@@ -887,10 +904,10 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C5" s="2">
         <v>0</v>
@@ -910,10 +927,10 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -933,10 +950,10 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -956,10 +973,10 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1211,13 +1228,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
@@ -1251,21 +1268,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
@@ -1274,12 +1291,12 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
@@ -1288,7 +1305,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
